--- a/活动兑换.xlsx
+++ b/活动兑换.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unlight\Unlight_Revive\Announcements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF7D787-AFC9-4395-A263-905ACB232BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A59A0A1-7B69-4B4B-8503-1604857402B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17055" yWindow="2940" windowWidth="21390" windowHeight="12780" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
+    <workbookView xWindow="6480" yWindow="4995" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,18 +98,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M1ヴィレア（毕雷亚）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2ヴィレア（毕雷亚）</t>
-  </si>
-  <si>
-    <t>M3ヴィレア（毕雷亚）</t>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリードレス(赤)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
+    <t>5 GEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 GEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 GEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 GEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 04/03定期维护前*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**卡片**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**服饰**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**其他**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**总计**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日PVP星星（3V3）</t>
+  </si>
+  <si>
+    <t>还需消耗AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还需消耗AP（仅好友3V3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑4·特2 双面事件卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑3·特1 双面事件卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑5·特3 双面事件卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインコート(赤) &lt;a href="imgs/costumes/レインコート（赤</t>
     </r>
     <r>
       <rPr>
@@ -119,7 +172,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +183,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>灰</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（红）*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインコート(青) &lt;a href="imgs/costumes/レインコート（赤</t>
     </r>
     <r>
       <rPr>
@@ -140,7 +199,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -151,13 +210,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>深緑）_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日礼服（红）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリーシューズ(赤)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（蓝）*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインコート(緑) &lt;a href="imgs/costumes/レインコート（赤</t>
     </r>
     <r>
       <rPr>
@@ -167,7 +226,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・灰・深緑）</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -178,13 +237,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日鞋子（红）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリーリボン(赤)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（绿）*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>長靴(赤)  &lt;a href="imgs/costumes/長靴（赤</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +253,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・灰・深緑）</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -205,13 +264,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日缎带（红）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリードレス(灰)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（红）*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>長靴(青)  &lt;a href="imgs/costumes/長靴（赤</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +280,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・灰・深緑）</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -232,13 +291,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日礼服（灰）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリーシューズ(灰)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（蓝）*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>長靴(</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +307,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・灰・深緑）</t>
+      <t>緑</t>
     </r>
     <r>
       <rPr>
@@ -259,13 +318,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日鞋子（灰）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリーリボン(灰)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
+      <t>)  &lt;a href="imgs/costumes/長靴（赤</t>
     </r>
     <r>
       <rPr>
@@ -275,7 +328,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・灰・深緑）</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -286,140 +339,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日缎带（灰）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリードレス(深緑)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・灰・深緑）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日礼服（深绿）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリーシューズ(深緑)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・灰・深緑）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日鞋子（深绿）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>アニバーサリーリボン(深緑)  &lt;a href="imgs/costumes/アニバーサリードレス（赤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・灰・深緑）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*纪念日缎带（深绿）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 04/03定期维护前*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**卡片**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**服饰**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**其他**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**总计**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日PVP星星（3V3）</t>
-  </si>
-  <si>
-    <t>还需消耗AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还需消耗AP（仅好友3V3）</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（绿）*</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE8461-6E61-4B1E-A08F-5231725235F1}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -823,12 +744,9 @@
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1080,57 +998,57 @@
       </c>
       <c r="D21" t="str">
         <f>"*"&amp;SUM(D2:D20)&amp;"*"</f>
-        <v>*699*</v>
+        <v>*599*</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>50</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:D26" si="2">B24*C24</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1139,62 +1057,62 @@
       </c>
       <c r="D27" t="str">
         <f>"*"&amp;SUM(D24:D26)&amp;"*"</f>
-        <v>*180*</v>
+        <v>*240*</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30" si="3">B30*C30</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:D38" si="4">B31*C31</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -1209,7 +1127,7 @@
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -1224,7 +1142,7 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -1237,49 +1155,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>20</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>20</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>20</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1288,75 +1188,75 @@
       </c>
       <c r="D39" t="str">
         <f>"*"&amp;SUM(D30:D38)&amp;"*"</f>
-        <v>*180*</v>
+        <v>*150*</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <f>MID(D21,2,LEN(D21)-2)+MID(D27,2,LEN(D27)-2)+MID(D39,2,LEN(D39)-2)</f>
-        <v>1059</v>
+        <v>989</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <f>3*14*5</f>
@@ -1365,20 +1265,20 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D50">
         <f>D48-D49</f>
-        <v>849</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <f>ROUNDUP(D50/5,0)*3</f>
-        <v>510</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/活动兑换.xlsx
+++ b/活动兑换.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unlight\Unlight_Revive\Announcements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A59A0A1-7B69-4B4B-8503-1604857402B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CD314-F769-4650-8AE7-E6ED123450FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="4995" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
+    <workbookView xWindow="17220" yWindow="5355" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,14 @@
       </rPr>
       <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（绿）*</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アイスソード（冰剑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水撃銃（水枪）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE8461-6E61-4B1E-A08F-5231725235F1}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D26" si="2">B24*C24</f>
+        <f t="shared" ref="D24:D28" si="2">B24*C24</f>
         <v>100</v>
       </c>
     </row>
@@ -1053,51 +1061,51 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="str">
-        <f>"*"&amp;SUM(D24:D26)&amp;"*"</f>
-        <v>*240*</v>
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>70</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="str">
+        <f>"*"&amp;SUM(D24:D28)&amp;"*"</f>
+        <v>*380*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30" si="3">B30*C30</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:D38" si="4">B31*C31</f>
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -1106,43 +1114,43 @@
         <v>1</v>
       </c>
       <c r="D32">
+        <f t="shared" ref="D32" si="3">B32*C32</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D40" si="4">B33*C33</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -1155,22 +1163,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
       <c r="B36">
         <v>20</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
       <c r="B37">
         <v>20</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1183,47 +1203,43 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="str">
-        <f>"*"&amp;SUM(D30:D38)&amp;"*"</f>
-        <v>*150*</v>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D41" t="str">
+        <f>"*"&amp;SUM(D32:D40)&amp;"*"</f>
+        <v>*150*</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -1231,10 +1247,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1242,43 +1258,65 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>30</v>
       </c>
-      <c r="D48">
-        <f>MID(D21,2,LEN(D21)-2)+MID(D27,2,LEN(D27)-2)+MID(D39,2,LEN(D39)-2)</f>
-        <v>989</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="D50">
+        <f>MID(D21,2,LEN(D21)-2)+MID(D29,2,LEN(D29)-2)+MID(D41,2,LEN(D41)-2)</f>
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>31</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <f>3*14*5</f>
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>32</v>
       </c>
-      <c r="D50">
-        <f>D48-D49</f>
-        <v>779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="D52">
+        <f>D50-D51</f>
+        <v>919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="D51">
-        <f>ROUNDUP(D50/5,0)*3</f>
-        <v>468</v>
+      <c r="D53">
+        <f>ROUNDUP(D52/5,0)*3</f>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/活动兑换.xlsx
+++ b/活动兑换.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unlight\Unlight_Revive\Announcements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CD314-F769-4650-8AE7-E6ED123450FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6438844-1AC9-4D94-9DD0-D761C818CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="5355" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
+    <workbookView xWindow="23565" yWindow="5040" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,34 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人偶的日记本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>魔女的衣柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>花1</t>
@@ -95,75 +91,56 @@
   </si>
   <si>
     <t>*小计*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>50 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1000 GEM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 04/03定期维护前*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>**卡片**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>**服饰**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>**其他**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>**总计**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每日PVP星星（3V3）</t>
   </si>
   <si>
     <t>还需消耗AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>还需消耗AP（仅好友3V3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑4·特2 双面事件卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑3·特1 双面事件卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑5·特3 双面事件卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインコート(赤) &lt;a href="imgs/costumes/レインコート（赤</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -172,7 +149,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>ExAnemonea</t>
     </r>
     <r>
       <rPr>
@@ -183,14 +160,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（红）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインコート(青) &lt;a href="imgs/costumes/レインコート（赤</t>
-    </r>
+      <t>通行证1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -199,7 +173,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>ExAnemonea</t>
     </r>
     <r>
       <rPr>
@@ -210,14 +184,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（蓝）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインコート(緑) &lt;a href="imgs/costumes/レインコート（赤</t>
-    </r>
+      <t>通行证2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -226,7 +206,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>ExAnemonea</t>
     </r>
     <r>
       <rPr>
@@ -237,13 +217,42 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（绿）*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>長靴(赤)  &lt;a href="imgs/costumes/長靴（赤</t>
+      <t>通行证3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Ex天使大陆通行证1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex天使大陆通行证2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex天使大陆通行证3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハロウィンフォーク（万圣节叉子）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>バットブーメラン（蝙蝠回旋镖）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>パンプキンチュニック(緑)  &lt;a href="imgs/costumes/長靴（赤</t>
     </r>
     <r>
       <rPr>
@@ -266,11 +275,11 @@
       </rPr>
       <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（红）*</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>長靴(青)  &lt;a href="imgs/costumes/長靴（赤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>パンプキンチュニック(桃)  &lt;a href="imgs/costumes/長靴（赤</t>
     </r>
     <r>
       <rPr>
@@ -293,11 +302,11 @@
       </rPr>
       <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（蓝）*</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>長靴(</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>パンプキンブーツ(紫)  &lt;a href="imgs/costumes/レインコート（赤</t>
     </r>
     <r>
       <rPr>
@@ -307,7 +316,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>緑</t>
+      <t>・青・緑）</t>
     </r>
     <r>
       <rPr>
@@ -318,7 +327,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)  &lt;a href="imgs/costumes/長靴（赤</t>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（绿）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>パンプキンブーツ(桃)  &lt;a href="imgs/costumes/レインコート（赤</t>
     </r>
     <r>
       <rPr>
@@ -339,30 +354,87 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（蓝）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>パンプキンブーツ(緑)  &lt;a href="imgs/costumes/レインコート（赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・青・緑）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（红）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>パンプキンチュニック(紫)  &lt;a href="imgs/costumes/長靴（赤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・青・緑）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（绿）*</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アイスソード（冰剑）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水撃銃（水枪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 11/13定期维护前*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE8461-6E61-4B1E-A08F-5231725235F1}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A59" sqref="A1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,12 +818,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
       <c r="D2">
         <f>B2*C2</f>
         <v>0</v>
@@ -777,7 +843,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -792,7 +858,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -801,13 +867,13 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D20" si="1">B7*C7</f>
+        <f t="shared" ref="D7:D26" si="1">B7*C7</f>
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -822,7 +888,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -837,7 +903,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -852,7 +918,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -867,7 +933,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -882,7 +948,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -897,7 +963,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -912,7 +978,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -927,7 +993,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -942,7 +1008,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -957,7 +1023,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -972,7 +1038,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -987,7 +1053,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -1002,16 +1068,47 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="str">
-        <f>"*"&amp;SUM(D2:D20)&amp;"*"</f>
-        <v>*599*</v>
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1019,308 +1116,331 @@
         <v>35</v>
       </c>
       <c r="B24">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D28" si="2">B24*C24</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>70</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28">
-        <v>70</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <v>19</v>
+      </c>
+      <c r="D27" t="str">
+        <f>"*"&amp;SUM(D2:D26)&amp;"*"</f>
+        <v>*733*</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="str">
-        <f>"*"&amp;SUM(D24:D28)&amp;"*"</f>
-        <v>*380*</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D34" si="2">B30*C30</f>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="str">
+        <f>"*"&amp;SUM(D30:D34)&amp;"*"</f>
+        <v>*120*</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D32">
-        <f t="shared" ref="D32" si="3">B32*C32</f>
+      <c r="D38">
+        <f t="shared" ref="D38" si="3">B38*C38</f>
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
         <v>30</v>
       </c>
-      <c r="C33">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D33">
-        <f t="shared" ref="D33:D40" si="4">B33*C33</f>
+      <c r="D39">
+        <f t="shared" ref="D39:D46" si="4">B39*C39</f>
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35">
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D41">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>30</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="D38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="D39">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="D40">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="str">
-        <f>"*"&amp;SUM(D32:D40)&amp;"*"</f>
-        <v>*150*</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="D47" t="str">
+        <f>"*"&amp;SUM(D38:D46)&amp;"*"</f>
+        <v>*180*</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50">
-        <f>MID(D21,2,LEN(D21)-2)+MID(D29,2,LEN(D29)-2)+MID(D41,2,LEN(D41)-2)</f>
-        <v>1129</v>
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <f>MID(D27,2,LEN(D27)-2)+MID(D35,2,LEN(D35)-2)+MID(D47,2,LEN(D47)-2)</f>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57">
         <f>3*14*5</f>
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52">
-        <f>D50-D51</f>
-        <v>919</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53">
-        <f>ROUNDUP(D52/5,0)*3</f>
-        <v>552</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <f>D56-D57</f>
+        <v>823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59">
+        <f>ROUNDUP(D58/5,0)*3</f>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/活动兑换.xlsx
+++ b/活动兑换.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unlight\Unlight_Revive\Announcements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6438844-1AC9-4D94-9DD0-D761C818CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B7B92-E351-46A4-91B3-566FE9D6811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23565" yWindow="5040" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
+    <workbookView xWindow="19605" yWindow="5310" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,16 +243,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ハロウィンフォーク（万圣节叉子）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>バットブーメラン（蝙蝠回旋镖）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>パンプキンチュニック(緑)  &lt;a href="imgs/costumes/長靴（赤</t>
+    <t>黄碎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿碎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝碎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红碎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫碎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ティンクルスター（叮当星）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪3特1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪4特2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪5特3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアコート(白)  &lt;a href="imgs/costumes/レインディアコート（白</t>
     </r>
     <r>
       <rPr>
@@ -262,7 +290,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>・青・赤）</t>
     </r>
     <r>
       <rPr>
@@ -273,13 +301,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（红）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>パンプキンチュニック(桃)  &lt;a href="imgs/costumes/長靴（赤</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿外衣（白）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアコート(赤)  &lt;a href="imgs/costumes/レインディアコート（白</t>
     </r>
     <r>
       <rPr>
@@ -289,7 +317,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>・青・赤）</t>
     </r>
     <r>
       <rPr>
@@ -300,13 +328,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（蓝）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>パンプキンブーツ(紫)  &lt;a href="imgs/costumes/レインコート（赤</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿外衣（红）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアフード(青)  &lt;a href="imgs/costumes/レインディアフード（白</t>
     </r>
     <r>
       <rPr>
@@ -316,7 +344,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>・青・赤）</t>
     </r>
     <r>
       <rPr>
@@ -327,13 +355,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（绿）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>パンプキンブーツ(桃)  &lt;a href="imgs/costumes/レインコート（赤</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿兜帽（蓝）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアフード(赤)  &lt;a href="imgs/costumes/レインディアフード（白</t>
     </r>
     <r>
       <rPr>
@@ -343,7 +371,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>・青・赤）</t>
     </r>
     <r>
       <rPr>
@@ -354,13 +382,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（蓝）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>パンプキンブーツ(緑)  &lt;a href="imgs/costumes/レインコート（赤</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿兜帽（红）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアフード(白)  &lt;a href="imgs/costumes/レインディアフード（白</t>
     </r>
     <r>
       <rPr>
@@ -370,7 +398,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>・青・赤）</t>
     </r>
     <r>
       <rPr>
@@ -381,13 +409,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*雨衣（红）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>パンプキンチュニック(紫)  &lt;a href="imgs/costumes/長靴（赤</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿兜帽（白）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアコート(青)  &lt;a href="imgs/costumes/レインディアコート（白</t>
     </r>
     <r>
       <rPr>
@@ -397,7 +425,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>・青・緑）</t>
+      <t>・青・赤）</t>
     </r>
     <r>
       <rPr>
@@ -408,12 +436,174 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.png"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*长靴（绿）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 11/13定期维护前*</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿外衣（蓝）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアタイツ(青)  &lt;a href="imgs/costumes/レインディアタイツ（青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・茶・赤）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（蓝）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアタイツ(茶)  &lt;a href="imgs/costumes/レインディアタイツ（青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・茶・赤）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（棕）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアタイツ(赤)  &lt;a href="imgs/costumes/レインディアタイツ（青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・茶・赤）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（红）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアブーツ(白)  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・青・赤）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（白）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアブーツ(青)  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・青・赤）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（蓝）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>レインディアブーツ(赤)  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・青・赤）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（红）*</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 2026/1/8定期维护前*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -792,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE8461-6E61-4B1E-A08F-5231725235F1}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A1:D59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,47 +1008,83 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <f>B6*C6</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -867,58 +1093,58 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D26" si="1">B7*C7</f>
+        <f>B7*C7</f>
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" ref="D8:D27" si="1">B8*C8</f>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -933,261 +1159,261 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="str">
-        <f>"*"&amp;SUM(D2:D26)&amp;"*"</f>
-        <v>*733*</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>25</v>
+      <c r="D28" t="str">
+        <f>"*"&amp;SUM(D2:D27)&amp;"*"</f>
+        <v>*808*</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>60</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30:D34" si="2">B30*C30</f>
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>60</v>
@@ -1196,247 +1422,352 @@
         <v>1</v>
       </c>
       <c r="D31">
+        <f t="shared" ref="D31:D35" si="2">B31*C31</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="D35" t="str">
-        <f>"*"&amp;SUM(D30:D34)&amp;"*"</f>
-        <v>*120*</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="D36" t="str">
+        <f>"*"&amp;SUM(D31:D35)&amp;"*"</f>
+        <v>*285*</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ref="D38" si="3">B38*C38</f>
-        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:D46" si="4">B39*C39</f>
-        <v>30</v>
+        <f t="shared" ref="D39" si="3">B39*C39</f>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" ref="D40:D50" si="4">B40*C40</f>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="str">
-        <f>"*"&amp;SUM(D38:D46)&amp;"*"</f>
-        <v>*180*</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D51" t="str">
+        <f>"*"&amp;SUM(D39:D50)&amp;"*"</f>
+        <v>*240*</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <v>200</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56">
-        <f>MID(D27,2,LEN(D27)-2)+MID(D35,2,LEN(D35)-2)+MID(D47,2,LEN(D47)-2)</f>
-        <v>1033</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <f>MID(D28,2,LEN(D28)-2)+MID(D36,2,LEN(D36)-2)+MID(D51,2,LEN(D51)-2)</f>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>29</v>
       </c>
-      <c r="D57">
+      <c r="D61">
         <f>3*14*5</f>
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>30</v>
       </c>
-      <c r="D58">
-        <f>D56-D57</f>
-        <v>823</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="D62">
+        <f>D60-D61</f>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>31</v>
       </c>
-      <c r="D59">
-        <f>ROUNDUP(D58/5,0)*3</f>
-        <v>495</v>
+      <c r="D63">
+        <f>ROUNDUP(D62/5,0)*3</f>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/活动兑换.xlsx
+++ b/活动兑换.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unlight\Unlight_Revive\Announcements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27B7B92-E351-46A4-91B3-566FE9D6811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED141220-60CF-477B-846C-1184453ABDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19605" yWindow="5310" windowWidth="15405" windowHeight="14205" xr2:uid="{DC22B4BA-6B94-41B8-935E-265380A15134}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>道具</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -243,44 +243,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黄碎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿碎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝碎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红碎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫碎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ティンクルスター（叮当星）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪3特1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪4特2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪5特3</t>
+    <t>移1特1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移2特2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移3特3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>レインディアコート(白)  &lt;a href="imgs/costumes/レインディアコート（白</t>
+      <t>バレンタインカード  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
     </r>
     <r>
       <rPr>
@@ -301,13 +277,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿外衣（白）*</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*情人节卡片*</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>レインディアコート(赤)  &lt;a href="imgs/costumes/レインディアコート（白</t>
+      <t>高級チョコレート  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
     </r>
     <r>
       <rPr>
@@ -328,282 +304,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿外衣（红）*</t>
+      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*高级巧克力*</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>レインディアフード(青)  &lt;a href="imgs/costumes/レインディアフード（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿兜帽（蓝）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアフード(赤)  &lt;a href="imgs/costumes/レインディアフード（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿兜帽（红）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアフード(白)  &lt;a href="imgs/costumes/レインディアフード（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿兜帽（白）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアコート(青)  &lt;a href="imgs/costumes/レインディアコート（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿外衣（蓝）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアタイツ(青)  &lt;a href="imgs/costumes/レインディアタイツ（青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・茶・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（蓝）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアタイツ(茶)  &lt;a href="imgs/costumes/レインディアタイツ（青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・茶・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（棕）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアタイツ(赤)  &lt;a href="imgs/costumes/レインディアタイツ（青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・茶・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（红）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアブーツ(白)  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（白）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアブーツ(青)  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（蓝）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>レインディアブーツ(赤)  &lt;a href="imgs/costumes/レインディアブーツ（白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・青・赤）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_Preview.jpg"  target="_blank"&gt;[预览]&lt;/a&gt;&lt;br&gt;*驯鹿连裤袜（红）*</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 2026/1/8定期维护前*</t>
+    <t>*GEM开放兑换时间：*&lt;br&gt;*活动结束后  ～ 2026/2/26定期维护前*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -984,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBE8461-6E61-4B1E-A08F-5231725235F1}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1008,78 +714,33 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">B3*C3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1403,7 +1064,7 @@
       </c>
       <c r="D28" t="str">
         <f>"*"&amp;SUM(D2:D27)&amp;"*"</f>
-        <v>*808*</v>
+        <v>*733*</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1412,38 +1073,29 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
-        <v>60</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="D31">
         <f t="shared" ref="D31:D35" si="2">B31*C31</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>60</v>
@@ -1458,7 +1110,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>65</v>
@@ -1483,7 +1135,7 @@
       </c>
       <c r="D36" t="str">
         <f>"*"&amp;SUM(D31:D35)&amp;"*"</f>
-        <v>*285*</v>
+        <v>*235*</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,184 +1143,94 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D39">
         <f t="shared" ref="D39" si="3">B39*C39</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D40">
         <f t="shared" ref="D40:D50" si="4">B40*C40</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48">
-        <v>20</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1239,7 @@
       </c>
       <c r="D51" t="str">
         <f>"*"&amp;SUM(D39:D50)&amp;"*"</f>
-        <v>*240*</v>
+        <v>*60*</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1731,7 +1293,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1740,7 +1302,7 @@
       </c>
       <c r="D60">
         <f>MID(D28,2,LEN(D28)-2)+MID(D36,2,LEN(D36)-2)+MID(D51,2,LEN(D51)-2)</f>
-        <v>1333</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,7 +1320,7 @@
       </c>
       <c r="D62">
         <f>D60-D61</f>
-        <v>1123</v>
+        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,7 +1329,7 @@
       </c>
       <c r="D63">
         <f>ROUNDUP(D62/5,0)*3</f>
-        <v>675</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
